--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.18894616165219</v>
+        <v>9.230948333333332</v>
       </c>
       <c r="H2">
-        <v>8.18894616165219</v>
+        <v>27.692845</v>
       </c>
       <c r="I2">
-        <v>0.1250773263832649</v>
+        <v>0.1305171068833537</v>
       </c>
       <c r="J2">
-        <v>0.1250773263832649</v>
+        <v>0.1363334551149949</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2187464738913</v>
+        <v>0.2379583333333334</v>
       </c>
       <c r="N2">
-        <v>0.2187464738913</v>
+        <v>0.713875</v>
       </c>
       <c r="O2">
-        <v>0.1841649502899247</v>
+        <v>0.1837051977730723</v>
       </c>
       <c r="P2">
-        <v>0.1841649502899247</v>
+        <v>0.2002374098318076</v>
       </c>
       <c r="Q2">
-        <v>1.791303097747112</v>
+        <v>2.196581080486111</v>
       </c>
       <c r="R2">
-        <v>1.791303097747112</v>
+        <v>19.769229724375</v>
       </c>
       <c r="S2">
-        <v>0.02303485959577066</v>
+        <v>0.0239766709327757</v>
       </c>
       <c r="T2">
-        <v>0.02303485959577066</v>
+        <v>0.02729905792564758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.18894616165219</v>
+        <v>9.230948333333332</v>
       </c>
       <c r="H3">
-        <v>8.18894616165219</v>
+        <v>27.692845</v>
       </c>
       <c r="I3">
-        <v>0.1250773263832649</v>
+        <v>0.1305171068833537</v>
       </c>
       <c r="J3">
-        <v>0.1250773263832649</v>
+        <v>0.1363334551149949</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.657884484746118</v>
+        <v>0.7365303333333334</v>
       </c>
       <c r="N3">
-        <v>0.657884484746118</v>
+        <v>2.209591</v>
       </c>
       <c r="O3">
-        <v>0.5538798467214986</v>
+        <v>0.5686056405569609</v>
       </c>
       <c r="P3">
-        <v>0.5538798467214986</v>
+        <v>0.6197762614290646</v>
       </c>
       <c r="Q3">
-        <v>5.387380626172252</v>
+        <v>6.798873452932778</v>
       </c>
       <c r="R3">
-        <v>5.387380626172252</v>
+        <v>61.189861076395</v>
       </c>
       <c r="S3">
-        <v>0.06927781036549759</v>
+        <v>0.07421276316305066</v>
       </c>
       <c r="T3">
-        <v>0.06927781036549759</v>
+        <v>0.08449623911887874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.18894616165219</v>
+        <v>9.230948333333332</v>
       </c>
       <c r="H4">
-        <v>8.18894616165219</v>
+        <v>27.692845</v>
       </c>
       <c r="I4">
-        <v>0.1250773263832649</v>
+        <v>0.1305171068833537</v>
       </c>
       <c r="J4">
-        <v>0.1250773263832649</v>
+        <v>0.1363334551149949</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.311143770196352</v>
+        <v>0.3208385</v>
       </c>
       <c r="N4">
-        <v>0.311143770196352</v>
+        <v>0.6416770000000001</v>
       </c>
       <c r="O4">
-        <v>0.2619552029885768</v>
+        <v>0.2476891616699668</v>
       </c>
       <c r="P4">
-        <v>0.2619552029885768</v>
+        <v>0.1799863287391277</v>
       </c>
       <c r="Q4">
-        <v>2.547939582671408</v>
+        <v>2.961643616844166</v>
       </c>
       <c r="R4">
-        <v>2.547939582671408</v>
+        <v>17.769861701065</v>
       </c>
       <c r="S4">
-        <v>0.03276465642199662</v>
+        <v>0.03232767278752732</v>
       </c>
       <c r="T4">
-        <v>0.03276465642199662</v>
+        <v>0.02453815807046859</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.1625399902758</v>
+        <v>14.26882533333333</v>
       </c>
       <c r="H5">
-        <v>13.1625399902758</v>
+        <v>42.806476</v>
       </c>
       <c r="I5">
-        <v>0.2010436114607865</v>
+        <v>0.2017480473166161</v>
       </c>
       <c r="J5">
-        <v>0.2010436114607865</v>
+        <v>0.2107387223803516</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2187464738913</v>
+        <v>0.2379583333333334</v>
       </c>
       <c r="N5">
-        <v>0.2187464738913</v>
+        <v>0.713875</v>
       </c>
       <c r="O5">
-        <v>0.1841649502899247</v>
+        <v>0.1837051977730723</v>
       </c>
       <c r="P5">
-        <v>0.1841649502899247</v>
+        <v>0.2002374098318076</v>
       </c>
       <c r="Q5">
-        <v>2.879259210326057</v>
+        <v>3.395385894944445</v>
       </c>
       <c r="R5">
-        <v>2.879259210326057</v>
+        <v>30.55847305450001</v>
       </c>
       <c r="S5">
-        <v>0.03702518671078268</v>
+        <v>0.0370621649326301</v>
       </c>
       <c r="T5">
-        <v>0.03702518671078268</v>
+        <v>0.04219777592070599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.1625399902758</v>
+        <v>14.26882533333333</v>
       </c>
       <c r="H6">
-        <v>13.1625399902758</v>
+        <v>42.806476</v>
       </c>
       <c r="I6">
-        <v>0.2010436114607865</v>
+        <v>0.2017480473166161</v>
       </c>
       <c r="J6">
-        <v>0.2010436114607865</v>
+        <v>0.2107387223803516</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.657884484746118</v>
+        <v>0.7365303333333334</v>
       </c>
       <c r="N6">
-        <v>0.657884484746118</v>
+        <v>2.209591</v>
       </c>
       <c r="O6">
-        <v>0.5538798467214986</v>
+        <v>0.5686056405569609</v>
       </c>
       <c r="P6">
-        <v>0.5538798467214986</v>
+        <v>0.6197762614290646</v>
       </c>
       <c r="Q6">
-        <v>8.659430839452769</v>
+        <v>10.50942267903511</v>
       </c>
       <c r="R6">
-        <v>8.659430839452769</v>
+        <v>94.58480411131602</v>
       </c>
       <c r="S6">
-        <v>0.111354004700237</v>
+        <v>0.1147150776755805</v>
       </c>
       <c r="T6">
-        <v>0.111354004700237</v>
+        <v>0.1306108574952319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.1625399902758</v>
+        <v>14.26882533333333</v>
       </c>
       <c r="H7">
-        <v>13.1625399902758</v>
+        <v>42.806476</v>
       </c>
       <c r="I7">
-        <v>0.2010436114607865</v>
+        <v>0.2017480473166161</v>
       </c>
       <c r="J7">
-        <v>0.2010436114607865</v>
+        <v>0.2107387223803516</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.311143770196352</v>
+        <v>0.3208385</v>
       </c>
       <c r="N7">
-        <v>0.311143770196352</v>
+        <v>0.6416770000000001</v>
       </c>
       <c r="O7">
-        <v>0.2619552029885768</v>
+        <v>0.2476891616699668</v>
       </c>
       <c r="P7">
-        <v>0.2619552029885768</v>
+        <v>0.1799863287391277</v>
       </c>
       <c r="Q7">
-        <v>4.095442317934666</v>
+        <v>4.577988516708667</v>
       </c>
       <c r="R7">
-        <v>4.095442317934666</v>
+        <v>27.46793110025201</v>
       </c>
       <c r="S7">
-        <v>0.05266442004976691</v>
+        <v>0.04997080470840543</v>
       </c>
       <c r="T7">
-        <v>0.05266442004976691</v>
+        <v>0.03793008896441374</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.811414886098</v>
+        <v>15.39360966666667</v>
       </c>
       <c r="H8">
-        <v>14.811414886098</v>
+        <v>46.180829</v>
       </c>
       <c r="I8">
-        <v>0.2262283982988911</v>
+        <v>0.2176514617604252</v>
       </c>
       <c r="J8">
-        <v>0.2262283982988911</v>
+        <v>0.2273508546212842</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2187464738913</v>
+        <v>0.2379583333333334</v>
       </c>
       <c r="N8">
-        <v>0.2187464738913</v>
+        <v>0.713875</v>
       </c>
       <c r="O8">
-        <v>0.1841649502899247</v>
+        <v>0.1837051977730723</v>
       </c>
       <c r="P8">
-        <v>0.1841649502899247</v>
+        <v>0.2002374098318076</v>
       </c>
       <c r="Q8">
-        <v>3.239944779675048</v>
+        <v>3.66303770026389</v>
       </c>
       <c r="R8">
-        <v>3.239944779675048</v>
+        <v>32.967339302375</v>
       </c>
       <c r="S8">
-        <v>0.04166334172688457</v>
+        <v>0.03998370482829718</v>
       </c>
       <c r="T8">
-        <v>0.04166334172688457</v>
+        <v>0.04552414625241379</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.811414886098</v>
+        <v>15.39360966666667</v>
       </c>
       <c r="H9">
-        <v>14.811414886098</v>
+        <v>46.180829</v>
       </c>
       <c r="I9">
-        <v>0.2262283982988911</v>
+        <v>0.2176514617604252</v>
       </c>
       <c r="J9">
-        <v>0.2262283982988911</v>
+        <v>0.2273508546212842</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.657884484746118</v>
+        <v>0.7365303333333334</v>
       </c>
       <c r="N9">
-        <v>0.657884484746118</v>
+        <v>2.209591</v>
       </c>
       <c r="O9">
-        <v>0.5538798467214986</v>
+        <v>0.5686056405569609</v>
       </c>
       <c r="P9">
-        <v>0.5538798467214986</v>
+        <v>0.6197762614290646</v>
       </c>
       <c r="Q9">
-        <v>9.744200050701565</v>
+        <v>11.33786045899322</v>
       </c>
       <c r="R9">
-        <v>9.744200050701565</v>
+        <v>102.040744130939</v>
       </c>
       <c r="S9">
-        <v>0.12530335057384</v>
+        <v>0.1237578488324454</v>
       </c>
       <c r="T9">
-        <v>0.12530335057384</v>
+        <v>0.1409066627098823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.811414886098</v>
+        <v>15.39360966666667</v>
       </c>
       <c r="H10">
-        <v>14.811414886098</v>
+        <v>46.180829</v>
       </c>
       <c r="I10">
-        <v>0.2262283982988911</v>
+        <v>0.2176514617604252</v>
       </c>
       <c r="J10">
-        <v>0.2262283982988911</v>
+        <v>0.2273508546212842</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.311143770196352</v>
+        <v>0.3208385</v>
       </c>
       <c r="N10">
-        <v>0.311143770196352</v>
+        <v>0.6416770000000001</v>
       </c>
       <c r="O10">
-        <v>0.2619552029885768</v>
+        <v>0.2476891616699668</v>
       </c>
       <c r="P10">
-        <v>0.2619552029885768</v>
+        <v>0.1799863287391277</v>
       </c>
       <c r="Q10">
-        <v>4.608479469602902</v>
+        <v>4.938862635038834</v>
       </c>
       <c r="R10">
-        <v>4.608479469602902</v>
+        <v>29.63317581023301</v>
       </c>
       <c r="S10">
-        <v>0.05926170599816664</v>
+        <v>0.05390990809968254</v>
       </c>
       <c r="T10">
-        <v>0.05926170599816664</v>
+        <v>0.04092004565898809</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.2062575539148</v>
+        <v>22.78050766666667</v>
       </c>
       <c r="H11">
-        <v>21.2062575539148</v>
+        <v>68.341523</v>
       </c>
       <c r="I11">
-        <v>0.3239027275401489</v>
+        <v>0.3220953954699192</v>
       </c>
       <c r="J11">
-        <v>0.3239027275401489</v>
+        <v>0.3364492148932655</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2187464738913</v>
+        <v>0.2379583333333334</v>
       </c>
       <c r="N11">
-        <v>0.2187464738913</v>
+        <v>0.713875</v>
       </c>
       <c r="O11">
-        <v>0.1841649502899247</v>
+        <v>0.1837051977730723</v>
       </c>
       <c r="P11">
-        <v>0.1841649502899247</v>
+        <v>0.2002374098318076</v>
       </c>
       <c r="Q11">
-        <v>4.638794064349607</v>
+        <v>5.420811636847223</v>
       </c>
       <c r="R11">
-        <v>4.638794064349607</v>
+        <v>48.787304731625</v>
       </c>
       <c r="S11">
-        <v>0.05965152971620254</v>
+        <v>0.05917059832659743</v>
       </c>
       <c r="T11">
-        <v>0.05965152971620254</v>
+        <v>0.0673697193301727</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.2062575539148</v>
+        <v>22.78050766666667</v>
       </c>
       <c r="H12">
-        <v>21.2062575539148</v>
+        <v>68.341523</v>
       </c>
       <c r="I12">
-        <v>0.3239027275401489</v>
+        <v>0.3220953954699192</v>
       </c>
       <c r="J12">
-        <v>0.3239027275401489</v>
+        <v>0.3364492148932655</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.657884484746118</v>
+        <v>0.7365303333333334</v>
       </c>
       <c r="N12">
-        <v>0.657884484746118</v>
+        <v>2.209591</v>
       </c>
       <c r="O12">
-        <v>0.5538798467214986</v>
+        <v>0.5686056405569609</v>
       </c>
       <c r="P12">
-        <v>0.5538798467214986</v>
+        <v>0.6197762614290646</v>
       </c>
       <c r="Q12">
-        <v>13.95126782425071</v>
+        <v>16.77853490523255</v>
       </c>
       <c r="R12">
-        <v>13.95126782425071</v>
+        <v>151.006814147093</v>
       </c>
       <c r="S12">
-        <v>0.179403193082613</v>
+        <v>0.1831452586616211</v>
       </c>
       <c r="T12">
-        <v>0.179403193082613</v>
+        <v>0.2085232365672921</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.2062575539148</v>
+        <v>22.78050766666667</v>
       </c>
       <c r="H13">
-        <v>21.2062575539148</v>
+        <v>68.341523</v>
       </c>
       <c r="I13">
-        <v>0.3239027275401489</v>
+        <v>0.3220953954699192</v>
       </c>
       <c r="J13">
-        <v>0.3239027275401489</v>
+        <v>0.3364492148932655</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.311143770196352</v>
+        <v>0.3208385</v>
       </c>
       <c r="N13">
-        <v>0.311143770196352</v>
+        <v>0.6416770000000001</v>
       </c>
       <c r="O13">
-        <v>0.2619552029885768</v>
+        <v>0.2476891616699668</v>
       </c>
       <c r="P13">
-        <v>0.2619552029885768</v>
+        <v>0.1799863287391277</v>
       </c>
       <c r="Q13">
-        <v>6.59819492707992</v>
+        <v>7.308863909011833</v>
       </c>
       <c r="R13">
-        <v>6.59819492707992</v>
+        <v>43.853183454071</v>
       </c>
       <c r="S13">
-        <v>0.08484800474133339</v>
+        <v>0.0797795384817007</v>
       </c>
       <c r="T13">
-        <v>0.08484800474133339</v>
+        <v>0.06055625899580071</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.10190957399865</v>
+        <v>9.052074000000001</v>
       </c>
       <c r="H14">
-        <v>8.10190957399865</v>
+        <v>18.104148</v>
       </c>
       <c r="I14">
-        <v>0.1237479363169085</v>
+        <v>0.1279879885696859</v>
       </c>
       <c r="J14">
-        <v>0.1237479363169085</v>
+        <v>0.0891277529901036</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2187464738913</v>
+        <v>0.2379583333333334</v>
       </c>
       <c r="N14">
-        <v>0.2187464738913</v>
+        <v>0.713875</v>
       </c>
       <c r="O14">
-        <v>0.1841649502899247</v>
+        <v>0.1837051977730723</v>
       </c>
       <c r="P14">
-        <v>0.1841649502899247</v>
+        <v>0.2002374098318076</v>
       </c>
       <c r="Q14">
-        <v>1.772264151098369</v>
+        <v>2.154016442250001</v>
       </c>
       <c r="R14">
-        <v>1.772264151098369</v>
+        <v>12.9240986535</v>
       </c>
       <c r="S14">
-        <v>0.02279003254028422</v>
+        <v>0.02351205875277185</v>
       </c>
       <c r="T14">
-        <v>0.02279003254028422</v>
+        <v>0.01784671040286749</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.10190957399865</v>
+        <v>9.052074000000001</v>
       </c>
       <c r="H15">
-        <v>8.10190957399865</v>
+        <v>18.104148</v>
       </c>
       <c r="I15">
-        <v>0.1237479363169085</v>
+        <v>0.1279879885696859</v>
       </c>
       <c r="J15">
-        <v>0.1237479363169085</v>
+        <v>0.0891277529901036</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.657884484746118</v>
+        <v>0.7365303333333334</v>
       </c>
       <c r="N15">
-        <v>0.657884484746118</v>
+        <v>2.209591</v>
       </c>
       <c r="O15">
-        <v>0.5538798467214986</v>
+        <v>0.5686056405569609</v>
       </c>
       <c r="P15">
-        <v>0.5538798467214986</v>
+        <v>0.6197762614290646</v>
       </c>
       <c r="Q15">
-        <v>5.330120605549743</v>
+        <v>6.667127080578001</v>
       </c>
       <c r="R15">
-        <v>5.330120605549743</v>
+        <v>40.002762483468</v>
       </c>
       <c r="S15">
-        <v>0.06854148799931106</v>
+        <v>0.07277469222426322</v>
       </c>
       <c r="T15">
-        <v>0.06854148799931106</v>
+        <v>0.05523926553777955</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.10190957399865</v>
+        <v>9.052074000000001</v>
       </c>
       <c r="H16">
-        <v>8.10190957399865</v>
+        <v>18.104148</v>
       </c>
       <c r="I16">
-        <v>0.1237479363169085</v>
+        <v>0.1279879885696859</v>
       </c>
       <c r="J16">
-        <v>0.1237479363169085</v>
+        <v>0.0891277529901036</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.311143770196352</v>
+        <v>0.3208385</v>
       </c>
       <c r="N16">
-        <v>0.311143770196352</v>
+        <v>0.6416770000000001</v>
       </c>
       <c r="O16">
-        <v>0.2619552029885768</v>
+        <v>0.2476891616699668</v>
       </c>
       <c r="P16">
-        <v>0.2619552029885768</v>
+        <v>0.1799863287391277</v>
       </c>
       <c r="Q16">
-        <v>2.52085869064386</v>
+        <v>2.904253844049001</v>
       </c>
       <c r="R16">
-        <v>2.52085869064386</v>
+        <v>11.617015376196</v>
       </c>
       <c r="S16">
-        <v>0.03241641577731325</v>
+        <v>0.03170123759265078</v>
       </c>
       <c r="T16">
-        <v>0.03241641577731325</v>
+        <v>0.01604177704945656</v>
       </c>
     </row>
   </sheetData>
